--- a/docs/.gitbook/assets/risk_assessment_template.xlsx
+++ b/docs/.gitbook/assets/risk_assessment_template.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohamedhacene/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71C3436-F4F8-1D4F-8911-8F77A9D10D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532200C7-572B-E94F-9621-25545F44F642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="21660" xr2:uid="{1E3282CF-9D23-8B44-A0A5-0B7E449DE1FE}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="19980" xr2:uid="{1E3282CF-9D23-8B44-A0A5-0B7E449DE1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>ref_id</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>certain</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>mitigate</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
 </sst>
 </file>
@@ -221,7 +233,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35B75F0-636B-7A44-9A19-B785E175983B}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,7 +570,7 @@
     <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,8 +613,11 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -630,8 +645,11 @@
       <c r="M2" t="s">
         <v>22</v>
       </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -660,7 +678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -685,8 +703,11 @@
       <c r="K4" t="s">
         <v>29</v>
       </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -707,6 +728,9 @@
       </c>
       <c r="K5" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
